--- a/files/user.xlsx
+++ b/files/user.xlsx
@@ -1,49 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namwo\Documents\GitHub\kakaobob\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38B233-99AE-479A-9A3B-69BA0063BA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1035" windowWidth="17520" windowHeight="14370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="690" yWindow="1035" windowWidth="17520" windowHeight="14370" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +53,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -342,17 +324,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:B497"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="28.5" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>259618</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>992837</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/files/user.xlsx
+++ b/files/user.xlsx
@@ -343,7 +343,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>259618</t>
+          <t>571259</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -353,7 +353,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>992837</t>
+          <t>990010</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -363,11 +363,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>002001</t>
+          <t>710472</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4"/>

--- a/files/user.xlsx
+++ b/files/user.xlsx
@@ -343,7 +343,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>571259</t>
+          <t>530d2873fd4d856ac6a609071607a0e0c266c6455cea41a434e679388a80ea94b5</t>
         </is>
       </c>
       <c r="B1" t="n">
